--- a/ValueSet-vs-ethnicity.xlsx
+++ b/ValueSet-vs-ethnicity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/ValueSet/vs-ethnicity</t>
+    <t>http://openhie.org/fhir/ImplementationGuide/openhie.fhir.casereporting/ValueSet/vs-ethnicity</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T15:17:42+00:00</t>
+    <t>2022-09-28T12:49:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -239,7 +239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -329,37 +329,45 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B16" t="s" s="2">
         <v>25</v>
       </c>
     </row>

--- a/ValueSet-vs-ethnicity.xlsx
+++ b/ValueSet-vs-ethnicity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-28T12:49:05+00:00</t>
+    <t>2022-10-26T07:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ethnicity.xlsx
+++ b/ValueSet-vs-ethnicity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-26T07:57:57+00:00</t>
+    <t>2022-11-01T11:28:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ethnicity.xlsx
+++ b/ValueSet-vs-ethnicity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-01T11:28:37+00:00</t>
+    <t>2022-12-13T09:27:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ethnicity.xlsx
+++ b/ValueSet-vs-ethnicity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-13T09:27:38+00:00</t>
+    <t>2022-12-13T09:28:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ethnicity.xlsx
+++ b/ValueSet-vs-ethnicity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-13T09:28:26+00:00</t>
+    <t>2022-12-13T12:06:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ethnicity.xlsx
+++ b/ValueSet-vs-ethnicity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-13T12:06:00+00:00</t>
+    <t>2023-02-22T20:48:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
